--- a/app/dados.xlsx
+++ b/app/dados.xlsx
@@ -17,6 +17,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abril</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -111,51 +126,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>15</v>
       </c>
     </row>
